--- a/output/france/publisher.xlsx
+++ b/output/france/publisher.xlsx
@@ -101,17 +101,17 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FF6AA84F"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Cambria"/>
       <charset val="1"/>
       <family val="0"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <color rgb="FF6AA84F"/>
       <sz val="11"/>
     </font>
     <font>
@@ -275,18 +275,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -302,10 +299,13 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -317,19 +317,19 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -399,15 +399,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -420,7 +417,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -429,7 +429,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -818,13 +818,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A153" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="67.75" customWidth="1" style="44" min="1" max="1"/>
     <col width="41.13" customWidth="1" style="44" min="2" max="2"/>
@@ -877,7 +877,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="45">
+    <row r="4" ht="13.8" customHeight="1" s="45">
       <c r="A4" s="52" t="inlineStr">
         <is>
           <t>Summary stats</t>
@@ -891,7 +891,7 @@
       </c>
       <c r="J4" s="54" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="45">
+    <row r="5" ht="13.8" customHeight="1" s="45">
       <c r="A5" s="55" t="inlineStr">
         <is>
           <t>Number of activities</t>
@@ -906,7 +906,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="45">
+    <row r="6" ht="13.8" customHeight="1" s="45">
       <c r="A6" s="57" t="inlineStr">
         <is>
           <t>Number of activities with transactions OR budgets OR planned disbursements in that year (based on transaction-date and period start date)</t>
@@ -939,7 +939,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="45">
+    <row r="7" ht="13.8" customHeight="1" s="45">
       <c r="A7" s="57" t="inlineStr">
         <is>
           <t>Number of transactions in that year (of all types; based on transaction-date)</t>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="45">
+    <row r="8" ht="13.8" customHeight="1" s="45">
       <c r="A8" s="57" t="inlineStr">
         <is>
           <t>Critical errors as assessed by the Validator? (use DS API to assess)</t>
@@ -977,7 +977,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="45">
+    <row r="9" ht="13.8" customHeight="1" s="45">
+      <c r="A9" s="44" t="inlineStr">
+        <is>
+          <t>Danger errors as assessed by the validator?</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>38</v>
+      </c>
       <c r="I9" s="54" t="inlineStr">
         <is>
           <t>Activity file(s) structure (Check Registry)</t>
@@ -985,7 +993,15 @@
       </c>
       <c r="J9" s="59" t="n"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="45">
+    <row r="10" ht="13.8" customHeight="1" s="45">
+      <c r="A10" s="44" t="inlineStr">
+        <is>
+          <t>Critical fail via datastore API</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
       <c r="I10" s="57" t="inlineStr">
         <is>
           <t>Number of activity files</t>
@@ -993,290 +1009,318 @@
       </c>
       <c r="J10" s="60" t="n"/>
     </row>
-    <row r="11" ht="15" customHeight="1" s="45">
-      <c r="I11" s="57" t="inlineStr">
+    <row r="11" ht="13.8" customHeight="1" s="45">
+      <c r="A11" s="44" t="inlineStr">
+        <is>
+          <t>Non-accessible files via datastore API (https://iatidatastore.iatistandard.org/api/datasets/failedpickups/?format=json&amp;publisher_identifier=46002)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="57" t="n"/>
+      <c r="J11" s="60" t="n"/>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="45">
+      <c r="A12" s="44" t="inlineStr">
+        <is>
+          <t>Activity status being used</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 4, 6, 1, 5, 3</t>
+        </is>
+      </c>
+      <c r="I12" s="57" t="n"/>
+      <c r="J12" s="60" t="n"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="45">
+      <c r="A13" s="44" t="inlineStr">
+        <is>
+          <t>List default and other currencies (transaction &amp; budget) being used</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I13" s="57" t="inlineStr">
         <is>
           <t>Qualitative assessment: publish one file for all activities? Individual files per recipient country or recipient region? Etc.</t>
         </is>
       </c>
-      <c r="J11" s="60" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="45">
-      <c r="A12" s="57" t="n"/>
-      <c r="B12" s="60" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="45">
-      <c r="A13" s="52" t="inlineStr">
+      <c r="J13" s="60" t="n"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="45">
+      <c r="A14" s="52" t="inlineStr">
         <is>
           <t>Participating Organizations</t>
         </is>
       </c>
-      <c r="B13" s="61" t="n"/>
-      <c r="I13" s="54" t="inlineStr">
+      <c r="B14" s="61" t="n"/>
+      <c r="I14" s="54" t="inlineStr">
         <is>
           <t>Participating Organizations</t>
         </is>
       </c>
-      <c r="J13" s="59" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="45">
-      <c r="A14" s="57" t="inlineStr">
+      <c r="J14" s="59" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="45">
+      <c r="A15" s="57" t="inlineStr">
         <is>
           <t>Number of participating orgs that include narrative and @ref</t>
         </is>
       </c>
-      <c r="B14" s="60" t="n">
+      <c r="B15" s="60" t="n">
         <v>3050</v>
       </c>
-      <c r="I14" s="57" t="inlineStr">
+      <c r="I15" s="57" t="inlineStr">
         <is>
           <t>Qualitative assessment: are @refs valid? is it possible to find org names using @refs?</t>
         </is>
       </c>
-      <c r="J14" s="60" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="45">
-      <c r="A15" s="57" t="inlineStr">
+      <c r="J15" s="60" t="n"/>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="45">
+      <c r="A16" s="57" t="inlineStr">
         <is>
           <t>Number of participating orgs that include @ref</t>
         </is>
       </c>
-      <c r="B15" s="60" t="n">
-        <v>4952</v>
-      </c>
-      <c r="I15" s="57" t="inlineStr">
+      <c r="B16" s="60" t="n">
+        <v>4950</v>
+      </c>
+      <c r="I16" s="57" t="inlineStr">
         <is>
           <t>Qualitative assessment: what does the use of different roles tell us?</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="45">
-      <c r="A16" s="57" t="inlineStr">
+    <row r="17" ht="13.8" customHeight="1" s="45">
+      <c r="A17" s="57" t="inlineStr">
         <is>
           <t>Number of participating orgs that include narrative</t>
         </is>
       </c>
-      <c r="B16" s="60" t="n">
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="45">
-      <c r="A17" s="62" t="inlineStr">
+      <c r="B17" s="60" t="n">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="45">
+      <c r="A18" s="57" t="inlineStr">
+        <is>
+          <t>Number of participating orgs with neither @ref or narrative (blank)</t>
+        </is>
+      </c>
+      <c r="B18" s="60" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="45">
+      <c r="A19" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding </t>
         </is>
       </c>
-      <c r="B17" s="60" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="45">
-      <c r="A18" s="57" t="inlineStr">
+      <c r="B19" s="60" t="n"/>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" s="45">
+      <c r="A20" s="57" t="inlineStr">
         <is>
           <t>Number of activities that include at least one funding organization</t>
         </is>
       </c>
-      <c r="B18" s="60" t="n">
+      <c r="B20" s="60" t="n">
         <v>1525</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="45">
-      <c r="A19" s="57" t="inlineStr">
+    <row r="21" ht="13.8" customHeight="1" s="45">
+      <c r="A21" s="57" t="inlineStr">
         <is>
           <t>Percentage of activities that include at least one funding organization</t>
         </is>
       </c>
-      <c r="B19" s="60" t="n">
+      <c r="B21" s="60" t="n">
         <v>70.63</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="45">
-      <c r="A20" s="62" t="inlineStr">
+    <row r="22" ht="13.8" customHeight="1" s="45">
+      <c r="A22" s="62" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="B20" s="60" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="45">
-      <c r="A21" s="57" t="inlineStr">
+      <c r="B22" s="60" t="n"/>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="45">
+      <c r="A23" s="57" t="inlineStr">
         <is>
           <t>Number of activities that include at least one accountable organization</t>
         </is>
       </c>
-      <c r="B21" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="45">
-      <c r="A22" s="57" t="inlineStr">
+      <c r="B23" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="45">
+      <c r="A24" s="57" t="inlineStr">
         <is>
           <t>Percentage of activities that include at least one accountable organization</t>
         </is>
       </c>
-      <c r="B22" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="45">
-      <c r="A23" s="62" t="inlineStr">
+      <c r="B24" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="45">
+      <c r="A25" s="62" t="inlineStr">
         <is>
           <t>Extending</t>
         </is>
       </c>
-      <c r="B23" s="60" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="45">
-      <c r="A24" s="57" t="inlineStr">
+      <c r="B25" s="60" t="n"/>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="45">
+      <c r="A26" s="57" t="inlineStr">
         <is>
           <t>Number of activities that include at least one extending organization</t>
         </is>
       </c>
-      <c r="B24" s="60" t="n">
+      <c r="B26" s="60" t="n">
         <v>1525</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="45">
-      <c r="A25" s="57" t="inlineStr">
+    <row r="27" ht="13.8" customHeight="1" s="45">
+      <c r="A27" s="57" t="inlineStr">
         <is>
           <t>Percentage of activities that include at least one extending organization</t>
         </is>
       </c>
-      <c r="B25" s="60" t="n">
+      <c r="B27" s="60" t="n">
         <v>70.63</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="45">
-      <c r="A26" s="62" t="inlineStr">
+    <row r="28" ht="13.8" customHeight="1" s="45">
+      <c r="A28" s="62" t="inlineStr">
         <is>
           <t>Implementing</t>
         </is>
       </c>
-      <c r="B26" s="60" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="45">
-      <c r="A27" s="57" t="inlineStr">
+      <c r="B28" s="60" t="n"/>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" s="45">
+      <c r="A29" s="57" t="inlineStr">
         <is>
           <t>Number of activities that include at least one implementing organization</t>
         </is>
       </c>
-      <c r="B27" s="60" t="n">
+      <c r="B29" s="60" t="n">
         <v>1525</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="45">
-      <c r="A28" s="57" t="inlineStr">
+    <row r="30" ht="13.8" customHeight="1" s="45">
+      <c r="A30" s="57" t="inlineStr">
         <is>
           <t>Percentage of activities that include at least one implementing organization</t>
         </is>
       </c>
-      <c r="B28" s="60" t="n">
+      <c r="B30" s="60" t="n">
         <v>70.63</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="45">
-      <c r="A29" s="63" t="n"/>
-      <c r="B29" s="64" t="n"/>
-      <c r="I29" s="63" t="n"/>
-      <c r="J29" s="64" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="45">
-      <c r="A30" s="52" t="inlineStr">
+    <row r="31" ht="13.8" customHeight="1" s="45">
+      <c r="A31" s="52" t="inlineStr">
         <is>
           <t>Transactions - inclusion of provider and receiver orgs</t>
         </is>
       </c>
-      <c r="B30" s="61" t="n"/>
-      <c r="I30" s="54" t="inlineStr">
+      <c r="B31" s="61" t="n"/>
+      <c r="I31" s="54" t="inlineStr">
         <is>
           <t>Transactions - inclusion of provider and receiver orgs</t>
         </is>
       </c>
-      <c r="J30" s="59" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="45">
-      <c r="A31" s="62" t="inlineStr">
+      <c r="J31" s="59" t="n"/>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="45">
+      <c r="A32" s="62" t="inlineStr">
         <is>
           <t>Provider orgs</t>
         </is>
       </c>
-      <c r="B31" s="60" t="n"/>
-      <c r="I31" s="57" t="inlineStr">
+      <c r="B32" s="60" t="n"/>
+      <c r="I32" s="57" t="inlineStr">
         <is>
           <t>Qualitative assessment: is it possible to find org names using @refs?</t>
         </is>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="45">
-      <c r="A32" s="55" t="inlineStr">
-        <is>
-          <t>Number of transactions that include provider orgs (ref or narrative)</t>
-        </is>
-      </c>
-      <c r="B32" s="60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="45">
       <c r="A33" s="55" t="inlineStr">
         <is>
+          <t>Number of transactions that include provider orgs (ref or narrative)</t>
+        </is>
+      </c>
+      <c r="B33" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" s="45">
+      <c r="A34" s="55" t="inlineStr">
+        <is>
           <t>Percentage of transactions that include provider orgs</t>
         </is>
       </c>
-      <c r="B33" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="45">
-      <c r="A34" s="55" t="inlineStr">
+      <c r="B34" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" s="45">
+      <c r="A35" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include only ref</t>
         </is>
       </c>
-      <c r="B34" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="45">
-      <c r="A35" s="55" t="inlineStr">
+      <c r="B35" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="13.8" customHeight="1" s="45">
+      <c r="A36" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include only narrative</t>
         </is>
       </c>
-      <c r="B35" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="45">
-      <c r="A36" s="55" t="inlineStr">
+      <c r="B36" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="13.8" customHeight="1" s="45">
+      <c r="A37" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include ref + narrative</t>
         </is>
       </c>
-      <c r="B36" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="45">
-      <c r="A37" s="55" t="inlineStr">
+      <c r="B37" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" customHeight="1" s="45">
+      <c r="A38" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include provider-activity-id</t>
         </is>
       </c>
-      <c r="B37" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="45">
-      <c r="A38" s="65" t="inlineStr">
-        <is>
-          <t>Receiver orgs</t>
-        </is>
-      </c>
-      <c r="B38" s="60" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="45">
+      <c r="B38" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="13.8" customHeight="1" s="45">
       <c r="A39" s="55" t="inlineStr">
         <is>
-          <t>Number of transactions that include receiver orgs (ref or narrative)</t>
+          <t>Number of blank provider orgs</t>
         </is>
       </c>
       <c r="B39" s="60" t="n">
@@ -1286,142 +1330,123 @@
     <row r="40" ht="13.8" customHeight="1" s="45">
       <c r="A40" s="55" t="inlineStr">
         <is>
+          <t>List which transaction types provider orgs have been added for</t>
+        </is>
+      </c>
+      <c r="B40" s="60" t="inlineStr"/>
+    </row>
+    <row r="41" ht="13.8" customHeight="1" s="45">
+      <c r="A41" s="63" t="inlineStr">
+        <is>
+          <t>Receiver orgs</t>
+        </is>
+      </c>
+      <c r="B41" s="60" t="n"/>
+    </row>
+    <row r="42" ht="13.8" customHeight="1" s="45">
+      <c r="A42" s="55" t="inlineStr">
+        <is>
+          <t>Number of transactions that include receiver orgs (ref or narrative)</t>
+        </is>
+      </c>
+      <c r="B42" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="13.8" customHeight="1" s="45">
+      <c r="A43" s="55" t="inlineStr">
+        <is>
           <t>Percentage of transactions that include receiver orgs</t>
         </is>
       </c>
-      <c r="B40" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="45">
-      <c r="A41" s="55" t="inlineStr">
+      <c r="B43" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="13.8" customHeight="1" s="45">
+      <c r="A44" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include only ref</t>
         </is>
       </c>
-      <c r="B41" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="45">
-      <c r="A42" s="55" t="inlineStr">
+      <c r="B44" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="13.8" customHeight="1" s="45">
+      <c r="A45" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include only narrative</t>
         </is>
       </c>
-      <c r="B42" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="45">
-      <c r="A43" s="55" t="inlineStr">
+      <c r="B45" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="13.8" customHeight="1" s="45">
+      <c r="A46" s="55" t="inlineStr">
         <is>
           <t>Number of transactions that include ref + narrative</t>
         </is>
       </c>
-      <c r="B43" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="45">
-      <c r="A44" s="57" t="inlineStr">
+      <c r="B46" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="13.8" customHeight="1" s="45">
+      <c r="A47" s="57" t="inlineStr">
         <is>
           <t>Number of transactions that include provider-activity-id</t>
         </is>
       </c>
-      <c r="B44" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="45">
-      <c r="A45" s="57" t="n"/>
-      <c r="B45" s="60" t="n"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="45">
-      <c r="A46" s="52" t="inlineStr">
-        <is>
-          <t>Transactions - use of transaction types</t>
-        </is>
-      </c>
-      <c r="B46" s="61" t="n"/>
-      <c r="I46" s="54" t="inlineStr">
-        <is>
-          <t>Transactions - use of transaction types</t>
-        </is>
-      </c>
-      <c r="J46" s="59" t="n"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="45">
-      <c r="A47" s="62" t="inlineStr">
-        <is>
-          <t>Incoming Funds</t>
-        </is>
-      </c>
-      <c r="B47" s="60" t="n"/>
-      <c r="I47" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: is the date in the correct format?</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1" s="45">
+      <c r="B47" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="13.8" customHeight="1" s="45">
       <c r="A48" s="57" t="inlineStr">
         <is>
-          <t>Number of transactions for this transaction type</t>
+          <t>Number of blank receiver orgs</t>
         </is>
       </c>
       <c r="B48" s="60" t="n">
         <v>0</v>
-      </c>
-      <c r="I48" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Qualititative assessment: are there valid dates -- e.g. are there future transaction dates? </t>
-        </is>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="45">
       <c r="A49" s="57" t="inlineStr">
         <is>
-          <t>Number of activities that include this transaction type</t>
-        </is>
-      </c>
-      <c r="B49" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: are they correctly using value-date?</t>
-        </is>
-      </c>
+          <t>List which transaction types receiver orgs have been added for</t>
+        </is>
+      </c>
+      <c r="B49" s="60" t="inlineStr"/>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="45">
-      <c r="A50" s="57" t="inlineStr">
-        <is>
-          <t>Percentage of activities that include at least one transaction of this type</t>
-        </is>
-      </c>
-      <c r="B50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: is there a large gap between transaction-date and value-date?</t>
-        </is>
-      </c>
+      <c r="A50" s="52" t="inlineStr">
+        <is>
+          <t>Transactions - use of transaction types</t>
+        </is>
+      </c>
+      <c r="B50" s="61" t="n"/>
+      <c r="I50" s="54" t="inlineStr">
+        <is>
+          <t>Transactions - use of transaction types</t>
+        </is>
+      </c>
+      <c r="J50" s="59" t="n"/>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="45">
       <c r="A51" s="62" t="inlineStr">
         <is>
-          <t>Outgoing Commitments</t>
+          <t>Incoming Funds</t>
         </is>
       </c>
       <c r="B51" s="60" t="n"/>
       <c r="I51" s="57" t="inlineStr">
         <is>
-          <t>Qualitative assessment of transaction date: use of actual transaction date vs specific date in the month, quarter, year, etc.</t>
-        </is>
-      </c>
-      <c r="J51" s="60" t="n"/>
+          <t>Qualitative assessment: is the date in the correct format?</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="45">
       <c r="A52" s="57" t="inlineStr">
@@ -1430,11 +1455,11 @@
         </is>
       </c>
       <c r="B52" s="60" t="n">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="I52" s="57" t="inlineStr">
         <is>
-          <t>Qualitative assessment: are negative transactions reported? for which transaction types?</t>
+          <t xml:space="preserve">Qualititative assessment: are there valid dates -- e.g. are there future transaction dates? </t>
         </is>
       </c>
     </row>
@@ -1445,11 +1470,11 @@
         </is>
       </c>
       <c r="B53" s="60" t="n">
-        <v>1514</v>
+        <v>0</v>
       </c>
       <c r="I53" s="57" t="inlineStr">
         <is>
-          <t>Qualitative assessment of transaction value date: use of actual date vs specific date in the month, quarter, year, etc.</t>
+          <t>Qualitative assessment: are they correctly using value-date?</t>
         </is>
       </c>
     </row>
@@ -1460,16 +1485,27 @@
         </is>
       </c>
       <c r="B54" s="60" t="n">
-        <v>70.13</v>
+        <v>0</v>
+      </c>
+      <c r="I54" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment: is there a large gap between transaction-date and value-date?</t>
+        </is>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="45">
       <c r="A55" s="62" t="inlineStr">
         <is>
-          <t>Disbursements</t>
+          <t>Outgoing Commitments</t>
         </is>
       </c>
       <c r="B55" s="60" t="n"/>
+      <c r="I55" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment of transaction date: use of actual transaction date vs specific date in the month, quarter, year, etc.</t>
+        </is>
+      </c>
+      <c r="J55" s="60" t="n"/>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="45">
       <c r="A56" s="57" t="inlineStr">
@@ -1478,7 +1514,12 @@
         </is>
       </c>
       <c r="B56" s="60" t="n">
-        <v>1655</v>
+        <v>1610</v>
+      </c>
+      <c r="I56" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment: are negative transactions reported? for which transaction types?</t>
+        </is>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="45">
@@ -1487,8 +1528,13 @@
           <t>Number of activities that include this transaction type</t>
         </is>
       </c>
-      <c r="B57" s="64" t="n">
-        <v>1486</v>
+      <c r="B57" s="60" t="n">
+        <v>1514</v>
+      </c>
+      <c r="I57" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment of transaction value date: use of actual date vs specific date in the month, quarter, year, etc.</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="45">
@@ -1498,16 +1544,16 @@
         </is>
       </c>
       <c r="B58" s="60" t="n">
-        <v>68.83</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="45">
       <c r="A59" s="62" t="inlineStr">
         <is>
-          <t>Expenditures</t>
-        </is>
-      </c>
-      <c r="B59" s="64" t="n"/>
+          <t>Disbursements</t>
+        </is>
+      </c>
+      <c r="B59" s="60" t="n"/>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="45">
       <c r="A60" s="57" t="inlineStr">
@@ -1515,8 +1561,8 @@
           <t>Number of transactions for this transaction type</t>
         </is>
       </c>
-      <c r="B60" s="64" t="n">
-        <v>0</v>
+      <c r="B60" s="60" t="n">
+        <v>1655</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="45">
@@ -1526,7 +1572,7 @@
         </is>
       </c>
       <c r="B61" s="64" t="n">
-        <v>0</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="45">
@@ -1536,13 +1582,13 @@
         </is>
       </c>
       <c r="B62" s="60" t="n">
-        <v>0</v>
+        <v>68.83</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="45">
       <c r="A63" s="62" t="inlineStr">
         <is>
-          <t>Interest Payment</t>
+          <t>Expenditures</t>
         </is>
       </c>
       <c r="B63" s="64" t="n"/>
@@ -1553,7 +1599,7 @@
           <t>Number of transactions for this transaction type</t>
         </is>
       </c>
-      <c r="B64" s="66" t="n">
+      <c r="B64" s="64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1563,7 +1609,7 @@
           <t>Number of activities that include this transaction type</t>
         </is>
       </c>
-      <c r="B65" s="66" t="n">
+      <c r="B65" s="64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1573,14 +1619,14 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B66" s="66" t="n">
+      <c r="B66" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="45">
       <c r="A67" s="62" t="inlineStr">
         <is>
-          <t>Loan Repayment</t>
+          <t>Interest Payment</t>
         </is>
       </c>
       <c r="B67" s="64" t="n"/>
@@ -1591,7 +1637,7 @@
           <t>Number of transactions for this transaction type</t>
         </is>
       </c>
-      <c r="B68" s="64" t="n">
+      <c r="B68" s="65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1601,7 +1647,7 @@
           <t>Number of activities that include this transaction type</t>
         </is>
       </c>
-      <c r="B69" s="64" t="n">
+      <c r="B69" s="65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1611,14 +1657,14 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B70" s="64" t="n">
+      <c r="B70" s="65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="45">
       <c r="A71" s="62" t="inlineStr">
         <is>
-          <t>Reimbursement</t>
+          <t>Loan Repayment</t>
         </is>
       </c>
       <c r="B71" s="64" t="n"/>
@@ -1649,14 +1695,14 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B74" s="60" t="n">
+      <c r="B74" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="45">
       <c r="A75" s="62" t="inlineStr">
         <is>
-          <t>Purchase of Equity</t>
+          <t>Reimbursement</t>
         </is>
       </c>
       <c r="B75" s="64" t="n"/>
@@ -1687,14 +1733,14 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B78" s="64" t="n">
+      <c r="B78" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="45">
       <c r="A79" s="62" t="inlineStr">
         <is>
-          <t>Sale of Equity</t>
+          <t>Purchase of Equity</t>
         </is>
       </c>
       <c r="B79" s="64" t="n"/>
@@ -1732,7 +1778,7 @@
     <row r="83" ht="13.8" customHeight="1" s="45">
       <c r="A83" s="62" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Sale of Equity</t>
         </is>
       </c>
       <c r="B83" s="64" t="n"/>
@@ -1770,7 +1816,7 @@
     <row r="87" ht="13.8" customHeight="1" s="45">
       <c r="A87" s="62" t="inlineStr">
         <is>
-          <t>Incoming Commitment</t>
+          <t>Credit Guarantee</t>
         </is>
       </c>
       <c r="B87" s="64" t="n"/>
@@ -1801,14 +1847,14 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B90" s="60" t="n">
+      <c r="B90" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="45">
       <c r="A91" s="62" t="inlineStr">
         <is>
-          <t>Outgoing Pledge</t>
+          <t>Incoming Commitment</t>
         </is>
       </c>
       <c r="B91" s="64" t="n"/>
@@ -1839,14 +1885,14 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B94" s="64" t="n">
+      <c r="B94" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="45">
       <c r="A95" s="62" t="inlineStr">
         <is>
-          <t>Incoming Pledge</t>
+          <t>Outgoing Pledge</t>
         </is>
       </c>
       <c r="B95" s="64" t="n"/>
@@ -1877,1060 +1923,1098 @@
           <t>Percentage of activities that include at least one transaction of this type</t>
         </is>
       </c>
-      <c r="B98" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1" s="45">
-      <c r="A99" s="57" t="n"/>
+      <c r="B98" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="13.8" customHeight="1" s="45">
+      <c r="A99" s="62" t="inlineStr">
+        <is>
+          <t>Incoming Pledge</t>
+        </is>
+      </c>
       <c r="B99" s="64" t="n"/>
     </row>
-    <row r="100" ht="15" customHeight="1" s="45">
-      <c r="A100" s="52" t="inlineStr">
+    <row r="100" ht="13.8" customHeight="1" s="45">
+      <c r="A100" s="57" t="inlineStr">
+        <is>
+          <t>Number of transactions for this transaction type</t>
+        </is>
+      </c>
+      <c r="B100" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8" customHeight="1" s="45">
+      <c r="A101" s="57" t="inlineStr">
+        <is>
+          <t>Number of activities that include this transaction type</t>
+        </is>
+      </c>
+      <c r="B101" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="13.8" customHeight="1" s="45">
+      <c r="A102" s="57" t="inlineStr">
+        <is>
+          <t>Percentage of activities that include at least one transaction of this type</t>
+        </is>
+      </c>
+      <c r="B102" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="13.8" customHeight="1" s="45">
+      <c r="A103" s="57" t="n"/>
+      <c r="B103" s="64" t="n"/>
+    </row>
+    <row r="104" ht="13.8" customHeight="1" s="45">
+      <c r="A104" s="52" t="inlineStr">
         <is>
           <t>Budgets</t>
         </is>
       </c>
-      <c r="B100" s="61" t="n"/>
-      <c r="I100" s="54" t="inlineStr">
+      <c r="B104" s="61" t="n"/>
+      <c r="I104" s="54" t="inlineStr">
         <is>
           <t>Budgets</t>
         </is>
       </c>
-      <c r="J100" s="59" t="n"/>
-    </row>
-    <row r="101" ht="15" customHeight="1" s="45">
-      <c r="A101" s="57" t="inlineStr">
+      <c r="J104" s="59" t="n"/>
+    </row>
+    <row r="105" ht="13.8" customHeight="1" s="45">
+      <c r="A105" s="57" t="inlineStr">
         <is>
           <t>Number of budgets (based on budget start date in that year)</t>
         </is>
       </c>
-      <c r="B101" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" s="55" t="inlineStr">
+      <c r="B105" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="55" t="inlineStr">
         <is>
           <t>Qualitative assessment: what budget periods are used? Random? 1 month, 1 year, etc.?</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1" s="45">
-      <c r="A102" s="57" t="inlineStr">
+    <row r="106" ht="13.8" customHeight="1" s="45">
+      <c r="A106" s="57" t="inlineStr">
         <is>
           <t>Number of activities that contain budgets</t>
         </is>
       </c>
-      <c r="B102" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" s="55" t="inlineStr">
+      <c r="B106" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="55" t="inlineStr">
         <is>
           <t>Qualitative assessment: when do budget periods start? 1st of month, 15th of month, etc?</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="13.8" customHeight="1" s="45">
-      <c r="A103" s="57" t="inlineStr">
+    <row r="107" ht="13.8" customHeight="1" s="45">
+      <c r="A107" s="57" t="inlineStr">
         <is>
           <t>Percentage of activities that contain budgets</t>
         </is>
       </c>
-      <c r="B103" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" s="55" t="inlineStr">
+      <c r="B107" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="55" t="inlineStr">
         <is>
           <t>Qualitative assessment: when do budget periods end? End of month, etc.?</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" s="45">
-      <c r="A104" s="57" t="inlineStr">
+    <row r="108" ht="13.8" customHeight="1" s="45">
+      <c r="A108" s="57" t="inlineStr">
         <is>
           <t>Budgets reported for years beyond 2024?</t>
         </is>
       </c>
-      <c r="B104" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="55" t="inlineStr">
+      <c r="B108" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="55" t="inlineStr">
         <is>
           <t>Qualitative assessment: what date appears to be used for the value date?</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="14.15" customHeight="1" s="45">
-      <c r="A105" s="67" t="inlineStr">
+    <row r="109" ht="14.15" customHeight="1" s="45">
+      <c r="A109" s="66" t="inlineStr">
         <is>
           <t>Number of activities with only original budgets</t>
         </is>
       </c>
-      <c r="B105" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" s="55" t="n"/>
-    </row>
-    <row r="106" ht="14.15" customHeight="1" s="45">
-      <c r="A106" s="67" t="inlineStr">
+      <c r="B109" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="55" t="n"/>
+    </row>
+    <row r="110" ht="14.15" customHeight="1" s="45">
+      <c r="A110" s="66" t="inlineStr">
         <is>
           <t>Number of activities with only revised budgets</t>
         </is>
       </c>
-      <c r="B106" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" s="55" t="n"/>
-    </row>
-    <row r="107" ht="14.9" customHeight="1" s="45">
-      <c r="A107" s="67" t="inlineStr">
+      <c r="B110" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="55" t="n"/>
+    </row>
+    <row r="111" ht="14.9" customHeight="1" s="45">
+      <c r="A111" s="66" t="inlineStr">
         <is>
           <t>Number of activities with original and revised budgets</t>
         </is>
       </c>
-      <c r="B107" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" s="55" t="inlineStr">
+      <c r="B111" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve">Qualitative assessment: if original and revised budgets have been reported, are they reporting both for the same periods? </t>
         </is>
       </c>
-      <c r="J107" s="64" t="n"/>
-    </row>
-    <row r="108" ht="13.8" customHeight="1" s="45">
-      <c r="A108" s="57" t="n"/>
-      <c r="B108" s="64" t="n"/>
-    </row>
-    <row r="109" ht="13.8" customHeight="1" s="45">
-      <c r="A109" s="52" t="inlineStr">
+      <c r="J111" s="64" t="n"/>
+    </row>
+    <row r="112" ht="13.8" customHeight="1" s="45">
+      <c r="A112" s="57" t="n"/>
+      <c r="B112" s="64" t="n"/>
+    </row>
+    <row r="113" ht="13.8" customHeight="1" s="45">
+      <c r="A113" s="52" t="inlineStr">
         <is>
           <t>Planned Disbursement</t>
         </is>
       </c>
-      <c r="B109" s="68" t="n"/>
-      <c r="I109" s="54" t="inlineStr">
+      <c r="B113" s="67" t="n"/>
+      <c r="I113" s="54" t="inlineStr">
         <is>
           <t>Planned Disbursement</t>
         </is>
       </c>
-      <c r="J109" s="59" t="n"/>
-    </row>
-    <row r="110" ht="13.8" customHeight="1" s="45">
-      <c r="A110" s="57" t="inlineStr">
-        <is>
-          <t>Number of planned disbursements (based on period start date in that year)</t>
-        </is>
-      </c>
-      <c r="B110" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: what periods are used? Random? 1 month, 1 year, etc.?</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" ht="13.8" customHeight="1" s="45">
-      <c r="A111" s="57" t="inlineStr">
-        <is>
-          <t>Number of activities that contain planned disbursements</t>
-        </is>
-      </c>
-      <c r="B111" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: when do periods start? 1st of month, 15th of month, etc?</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" ht="13.8" customHeight="1" s="45">
-      <c r="A112" s="57" t="inlineStr">
-        <is>
-          <t>Percentage of activities that contain planned disbursements</t>
-        </is>
-      </c>
-      <c r="B112" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: when do periods end? End of month, etc.?</t>
-        </is>
-      </c>
-    </row>
-    <row r="113" ht="13.8" customHeight="1" s="45">
-      <c r="A113" s="57" t="inlineStr">
-        <is>
-          <t>Planned disbursements reported for years beyond 2024?</t>
-        </is>
-      </c>
-      <c r="B113" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" s="59" t="n"/>
     </row>
     <row r="114" ht="13.8" customHeight="1" s="45">
       <c r="A114" s="57" t="inlineStr">
         <is>
+          <t>Number of planned disbursements (based on period start date in that year)</t>
+        </is>
+      </c>
+      <c r="B114" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="57" t="inlineStr">
+        <is>
           <t>Qualitative assessment: what periods are used? Random? 1 month, 1 year, etc.?</t>
         </is>
       </c>
-      <c r="B114" s="64" t="n"/>
     </row>
     <row r="115" ht="13.8" customHeight="1" s="45">
       <c r="A115" s="57" t="inlineStr">
         <is>
+          <t>Number of activities that contain planned disbursements</t>
+        </is>
+      </c>
+      <c r="B115" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="57" t="inlineStr">
+        <is>
           <t>Qualitative assessment: when do periods start? 1st of month, 15th of month, etc?</t>
         </is>
       </c>
-      <c r="B115" s="64" t="n"/>
     </row>
     <row r="116" ht="13.8" customHeight="1" s="45">
       <c r="A116" s="57" t="inlineStr">
         <is>
+          <t>Percentage of activities that contain planned disbursements</t>
+        </is>
+      </c>
+      <c r="B116" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="57" t="inlineStr">
+        <is>
           <t>Qualitative assessment: when do periods end? End of month, etc.?</t>
         </is>
       </c>
-      <c r="B116" s="64" t="n"/>
     </row>
     <row r="117" ht="13.8" customHeight="1" s="45">
-      <c r="A117" s="57" t="n"/>
-      <c r="B117" s="64" t="n"/>
+      <c r="A117" s="57" t="inlineStr">
+        <is>
+          <t>Planned disbursements reported for years beyond 2024?</t>
+        </is>
+      </c>
+      <c r="B117" s="64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" ht="13.8" customHeight="1" s="45">
-      <c r="A118" s="52" t="inlineStr">
-        <is>
-          <t>Recipient Country / Region</t>
-        </is>
-      </c>
-      <c r="B118" s="61" t="n"/>
-      <c r="I118" s="54" t="inlineStr">
-        <is>
-          <t>Recipient Country / Region</t>
-        </is>
-      </c>
-      <c r="J118" s="59" t="n"/>
+      <c r="A118" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment: what periods are used? Random? 1 month, 1 year, etc.?</t>
+        </is>
+      </c>
+      <c r="B118" s="64" t="n"/>
     </row>
     <row r="119" ht="13.8" customHeight="1" s="45">
       <c r="A119" s="57" t="inlineStr">
         <is>
-          <t>Recipient country or region reported at activity or transaction level? Or both (if this is inconsistent)? Or none of these (e.g. using 998 or not recording them)?</t>
+          <t>Qualitative assessment: when do periods start? 1st of month, 15th of month, etc?</t>
         </is>
       </c>
       <c r="B119" s="64" t="n"/>
-      <c r="I119" s="57" t="inlineStr">
-        <is>
-          <t>Qualitative assessment: how are percentages allocated (TBC)</t>
-        </is>
-      </c>
     </row>
     <row r="120" ht="13.8" customHeight="1" s="45">
-      <c r="A120" s="55" t="inlineStr">
-        <is>
-          <t>Activity level: Number of activities with recipient country(ies) OR recipient region(s)</t>
-        </is>
-      </c>
-      <c r="B120" s="64" t="n">
-        <v>2156</v>
-      </c>
+      <c r="A120" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment: when do periods end? End of month, etc.?</t>
+        </is>
+      </c>
+      <c r="B120" s="64" t="n"/>
     </row>
     <row r="121" ht="13.8" customHeight="1" s="45">
-      <c r="A121" s="57" t="inlineStr">
-        <is>
-          <t>Activity level: Number of activities with recipient countries</t>
-        </is>
-      </c>
-      <c r="B121" s="64" t="n">
-        <v>2047</v>
-      </c>
+      <c r="A121" s="57" t="n"/>
+      <c r="B121" s="64" t="n"/>
     </row>
     <row r="122" ht="13.8" customHeight="1" s="45">
-      <c r="A122" s="57" t="inlineStr">
-        <is>
-          <t>Activity level: Number of activities with recipient regions</t>
-        </is>
-      </c>
-      <c r="B122" s="64" t="n">
-        <v>109</v>
-      </c>
+      <c r="A122" s="52" t="inlineStr">
+        <is>
+          <t>Recipient Country / Region</t>
+        </is>
+      </c>
+      <c r="B122" s="61" t="n"/>
+      <c r="I122" s="54" t="inlineStr">
+        <is>
+          <t>Recipient Country / Region</t>
+        </is>
+      </c>
+      <c r="J122" s="59" t="n"/>
     </row>
     <row r="123" ht="13.8" customHeight="1" s="45">
       <c r="A123" s="57" t="inlineStr">
         <is>
-          <t>Activity level: Number of activities with recipient country(ies) AND recipient region(s)</t>
-        </is>
-      </c>
-      <c r="B123" s="64" t="n">
-        <v>0</v>
+          <t>Recipient country or region reported at activity or transaction level? Or both (if this is inconsistent)? Or none of these (e.g. using 998 or not recording them)?</t>
+        </is>
+      </c>
+      <c r="B123" s="64" t="n"/>
+      <c r="I123" s="57" t="inlineStr">
+        <is>
+          <t>Qualitative assessment: how are percentages allocated (TBC)</t>
+        </is>
       </c>
     </row>
     <row r="124" ht="13.8" customHeight="1" s="45">
-      <c r="A124" s="57" t="inlineStr">
-        <is>
-          <t>Activity level: Number of transactions with recipient country(ies) OR recipient region(s)</t>
+      <c r="A124" s="55" t="inlineStr">
+        <is>
+          <t>Activity level: Number of activities with recipient country(ies) OR recipient region(s)</t>
         </is>
       </c>
       <c r="B124" s="64" t="n">
-        <v>4193</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="125" ht="13.8" customHeight="1" s="45">
       <c r="A125" s="57" t="inlineStr">
         <is>
-          <t>Transaction level: Number of transactions with recipient countries</t>
+          <t>Activity level: Number of activities with recipient countries</t>
         </is>
       </c>
       <c r="B125" s="64" t="n">
-        <v>0</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="126" ht="13.8" customHeight="1" s="45">
       <c r="A126" s="57" t="inlineStr">
         <is>
-          <t>Transaction level: Number of transactions with recipient regions</t>
+          <t>Activity level: Number of activities with recipient regions</t>
         </is>
       </c>
       <c r="B126" s="64" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" ht="13.8" customHeight="1" s="45">
       <c r="A127" s="57" t="inlineStr">
         <is>
+          <t>Activity level: Number of activities with recipient country(ies) AND recipient region(s)</t>
+        </is>
+      </c>
+      <c r="B127" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="13.8" customHeight="1" s="45">
+      <c r="A128" s="57" t="inlineStr">
+        <is>
+          <t>Activity level: Number of transactions with recipient country(ies) OR recipient region(s)</t>
+        </is>
+      </c>
+      <c r="B128" s="64" t="n">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="129" ht="13.8" customHeight="1" s="45">
+      <c r="A129" s="57" t="inlineStr">
+        <is>
+          <t>Transaction level: Number of transactions with recipient countries</t>
+        </is>
+      </c>
+      <c r="B129" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="13.8" customHeight="1" s="45">
+      <c r="A130" s="57" t="inlineStr">
+        <is>
+          <t>Transaction level: Number of transactions with recipient regions</t>
+        </is>
+      </c>
+      <c r="B130" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="13.8" customHeight="1" s="45">
+      <c r="A131" s="57" t="inlineStr">
+        <is>
           <t>Transaction level: Number of activities with transactions that have recipient countries AND recipient regions</t>
         </is>
       </c>
-      <c r="B127" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" ht="13.8" customHeight="1" s="45">
-      <c r="A128" s="57" t="n"/>
-      <c r="B128" s="64" t="n"/>
-    </row>
-    <row r="129" ht="13.8" customHeight="1" s="45">
-      <c r="A129" s="69" t="inlineStr">
+      <c r="B131" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="13.8" customHeight="1" s="45">
+      <c r="A132" s="57" t="n"/>
+      <c r="B132" s="64" t="n"/>
+    </row>
+    <row r="133" ht="13.8" customHeight="1" s="45">
+      <c r="A133" s="68" t="inlineStr">
         <is>
           <t>Sub-national Location</t>
         </is>
       </c>
-      <c r="B129" s="61" t="n"/>
-      <c r="I129" s="70" t="inlineStr">
+      <c r="B133" s="61" t="n"/>
+      <c r="I133" s="69" t="inlineStr">
         <is>
           <t>Sub-national Location</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="13.8" customHeight="1" s="45">
-      <c r="A130" s="63" t="inlineStr">
+    <row r="134" ht="13.8" customHeight="1" s="45">
+      <c r="A134" s="70" t="inlineStr">
         <is>
           <t>Number of activities that include any sub-national location data -- administrative areas OR geo-coordinates</t>
-        </is>
-      </c>
-      <c r="B130" s="64" t="n">
-        <v>1295</v>
-      </c>
-      <c r="I130" s="57" t="inlineStr">
-        <is>
-          <t>TO ADD</t>
-        </is>
-      </c>
-    </row>
-    <row r="131" ht="13.8" customHeight="1" s="45">
-      <c r="A131" s="63" t="inlineStr">
-        <is>
-          <t>Percentage of activities that include any sub-national location data -- administrative areas OR geo-coordinates</t>
-        </is>
-      </c>
-      <c r="B131" s="64" t="n">
-        <v>59.98</v>
-      </c>
-    </row>
-    <row r="132" ht="13.8" customHeight="1" s="45">
-      <c r="A132" s="63" t="inlineStr">
-        <is>
-          <t>Number of activities that include administrative areas (iati-activity/location/administrative)</t>
-        </is>
-      </c>
-      <c r="B132" s="64" t="n">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="133" ht="13.8" customHeight="1" s="45">
-      <c r="A133" s="63" t="inlineStr">
-        <is>
-          <t>Which administrative areas vocabular(ies) are used?</t>
-        </is>
-      </c>
-      <c r="B133" s="64" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-    </row>
-    <row r="134" ht="13.8" customHeight="1" s="45">
-      <c r="A134" s="63" t="inlineStr">
-        <is>
-          <t>Number of activities that include geo-coordinates (iati-activity/location/point and iati-activity/location/point/pos)</t>
         </is>
       </c>
       <c r="B134" s="64" t="n">
         <v>1295</v>
       </c>
+      <c r="I134" s="57" t="inlineStr">
+        <is>
+          <t>TO ADD</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="13.8" customHeight="1" s="45">
-      <c r="A135" s="57" t="n"/>
-      <c r="B135" s="64" t="n"/>
+      <c r="A135" s="70" t="inlineStr">
+        <is>
+          <t>Percentage of activities that include any sub-national location data -- administrative areas OR geo-coordinates</t>
+        </is>
+      </c>
+      <c r="B135" s="64" t="n">
+        <v>59.98</v>
+      </c>
     </row>
     <row r="136" ht="13.8" customHeight="1" s="45">
-      <c r="A136" s="52" t="inlineStr">
+      <c r="A136" s="70" t="inlineStr">
+        <is>
+          <t>Number of activities that include administrative areas (iati-activity/location/administrative)</t>
+        </is>
+      </c>
+      <c r="B136" s="64" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="137" ht="13.8" customHeight="1" s="45">
+      <c r="A137" s="70" t="inlineStr">
+        <is>
+          <t>Which administrative areas vocabular(ies) are used?</t>
+        </is>
+      </c>
+      <c r="B137" s="64" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="13.8" customHeight="1" s="45">
+      <c r="A138" s="70" t="inlineStr">
+        <is>
+          <t>Number of activities that include geo-coordinates (iati-activity/location/point and iati-activity/location/point/pos)</t>
+        </is>
+      </c>
+      <c r="B138" s="64" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="139" ht="13.8" customHeight="1" s="45">
+      <c r="A139" s="57" t="n"/>
+      <c r="B139" s="64" t="n"/>
+    </row>
+    <row r="140" ht="13.8" customHeight="1" s="45">
+      <c r="A140" s="52" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="B136" s="61" t="n"/>
-      <c r="I136" s="70" t="inlineStr">
+      <c r="B140" s="61" t="n"/>
+      <c r="I140" s="69" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="J136" s="59" t="n"/>
-    </row>
-    <row r="137" ht="14.15" customHeight="1" s="45">
-      <c r="A137" s="67" t="inlineStr">
+      <c r="J140" s="59" t="n"/>
+    </row>
+    <row r="141" ht="14.15" customHeight="1" s="45">
+      <c r="A141" s="66" t="inlineStr">
         <is>
           <t>Number of activities with activity-level sector(s)</t>
         </is>
       </c>
-      <c r="B137" s="64" t="n">
+      <c r="B141" s="64" t="n">
         <v>2159</v>
       </c>
-      <c r="I137" s="57" t="inlineStr">
+      <c r="I141" s="57" t="inlineStr">
         <is>
           <t>Qualitative assessment: how percentages are allocated (TBC)</t>
         </is>
       </c>
-      <c r="J137" s="64" t="n"/>
-    </row>
-    <row r="138" ht="13.8" customHeight="1" s="45">
-      <c r="A138" s="63" t="inlineStr">
+      <c r="J141" s="64" t="n"/>
+    </row>
+    <row r="142" ht="13.8" customHeight="1" s="45">
+      <c r="A142" s="70" t="inlineStr">
         <is>
           <t>Which vocabularies used at activity level?</t>
         </is>
       </c>
-      <c r="B138" s="71" t="inlineStr">
+      <c r="B142" s="71" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-    </row>
-    <row r="139" ht="13.8" customHeight="1" s="45">
-      <c r="A139" s="57" t="inlineStr">
-        <is>
-          <t>Number of activities including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
-        </is>
-      </c>
-      <c r="B139" s="71" t="n">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="140" ht="13.8" customHeight="1" s="45">
-      <c r="A140" s="57" t="inlineStr">
-        <is>
-          <t>Percentage of activities including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
-        </is>
-      </c>
-      <c r="B140" s="72" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" ht="13.8" customHeight="1" s="45">
-      <c r="A141" s="57" t="inlineStr">
-        <is>
-          <t>Number of activities including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
-        </is>
-      </c>
-      <c r="B141" s="71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" ht="13.8" customHeight="1" s="45">
-      <c r="A142" s="57" t="inlineStr">
-        <is>
-          <t>Percentage of activities including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
-        </is>
-      </c>
-      <c r="B142" s="71" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="143" ht="13.8" customHeight="1" s="45">
       <c r="A143" s="57" t="inlineStr">
         <is>
-          <t>Number of activities including at least one sector code from both vocabulary 1 and vocabulary 2</t>
+          <t>Number of activities including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
         </is>
       </c>
       <c r="B143" s="71" t="n">
-        <v>0</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="144" ht="13.8" customHeight="1" s="45">
       <c r="A144" s="57" t="inlineStr">
         <is>
+          <t>Percentage of activities including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
+        </is>
+      </c>
+      <c r="B144" s="72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" ht="13.8" customHeight="1" s="45">
+      <c r="A145" s="57" t="inlineStr">
+        <is>
+          <t>Number of activities including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
+        </is>
+      </c>
+      <c r="B145" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="13.8" customHeight="1" s="45">
+      <c r="A146" s="57" t="inlineStr">
+        <is>
+          <t>Percentage of activities including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
+        </is>
+      </c>
+      <c r="B146" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="13.8" customHeight="1" s="45">
+      <c r="A147" s="57" t="inlineStr">
+        <is>
+          <t>Number of activities including at least one sector code from both vocabulary 1 and vocabulary 2</t>
+        </is>
+      </c>
+      <c r="B147" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="13.8" customHeight="1" s="45">
+      <c r="A148" s="57" t="inlineStr">
+        <is>
           <t>Number of transactions with transaction-level sector(s)</t>
         </is>
       </c>
-      <c r="B144" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" ht="13.8" customHeight="1" s="45">
-      <c r="A145" s="63" t="inlineStr">
+      <c r="B148" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="13.8" customHeight="1" s="45">
+      <c r="A149" s="70" t="inlineStr">
         <is>
           <t>Which vocabularies used at transaction level?</t>
         </is>
       </c>
-      <c r="B145" s="64" t="inlineStr"/>
-    </row>
-    <row r="146" ht="13.8" customHeight="1" s="45">
-      <c r="A146" s="63" t="inlineStr">
+      <c r="B149" s="64" t="inlineStr"/>
+    </row>
+    <row r="150" ht="13.8" customHeight="1" s="45">
+      <c r="A150" s="70" t="inlineStr">
         <is>
           <t>Number of transactions including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
         </is>
       </c>
-      <c r="B146" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" ht="13.8" customHeight="1" s="45">
-      <c r="A147" s="63" t="inlineStr">
+      <c r="B150" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="13.8" customHeight="1" s="45">
+      <c r="A151" s="70" t="inlineStr">
         <is>
           <t>Percentage of  transactions  including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
         </is>
       </c>
-      <c r="B147" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" ht="13.8" customHeight="1" s="45">
-      <c r="A148" s="63" t="inlineStr">
+      <c r="B151" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="13.8" customHeight="1" s="45">
+      <c r="A152" s="70" t="inlineStr">
         <is>
           <t>Number of  transactions  including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
         </is>
       </c>
-      <c r="B148" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" ht="13.8" customHeight="1" s="45">
-      <c r="A149" s="63" t="inlineStr">
+      <c r="B152" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="13.8" customHeight="1" s="45">
+      <c r="A153" s="70" t="inlineStr">
         <is>
           <t>Percentage of  transactions  including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
         </is>
       </c>
-      <c r="B149" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" ht="13.8" customHeight="1" s="45">
-      <c r="A150" s="63" t="inlineStr">
+      <c r="B153" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="13.8" customHeight="1" s="45">
+      <c r="A154" s="70" t="inlineStr">
         <is>
           <t>Number of  transactions including at least one sector code from both vocabulary 1 and vocabulary 2</t>
         </is>
       </c>
-      <c r="B150" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" ht="13.8" customHeight="1" s="45">
-      <c r="A151" s="63" t="n"/>
-      <c r="B151" s="64" t="n"/>
-    </row>
-    <row r="152" ht="13.8" customHeight="1" s="45">
-      <c r="A152" s="52" t="inlineStr">
+      <c r="B154" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="13.8" customHeight="1" s="45">
+      <c r="A155" s="70" t="n"/>
+      <c r="B155" s="64" t="n"/>
+    </row>
+    <row r="156" ht="13.8" customHeight="1" s="45">
+      <c r="A156" s="52" t="inlineStr">
         <is>
           <t>SDGs and Policy Markers?</t>
         </is>
       </c>
-      <c r="B152" s="61" t="n"/>
-      <c r="I152" s="70" t="inlineStr">
+      <c r="B156" s="61" t="n"/>
+      <c r="I156" s="69" t="inlineStr">
         <is>
           <t>SDGs and Policy Markers?</t>
         </is>
       </c>
-      <c r="J152" s="59" t="n"/>
-    </row>
-    <row r="153" ht="13.8" customHeight="1" s="45">
-      <c r="A153" s="73" t="inlineStr">
-        <is>
-          <t>Number of activities that include any SDG information (any of the three options listed below)</t>
-        </is>
-      </c>
-      <c r="B153" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" s="57" t="inlineStr">
-        <is>
-          <t>To add</t>
-        </is>
-      </c>
-    </row>
-    <row r="154" ht="13.8" customHeight="1" s="45">
-      <c r="A154" s="73" t="inlineStr">
-        <is>
-          <t>Number of activities that include at least one SDG goal or target in the Tag element</t>
-        </is>
-      </c>
-      <c r="B154" s="71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" ht="13.8" customHeight="1" s="45">
-      <c r="A155" s="73" t="inlineStr">
-        <is>
-          <t>Number of activities that include at least one SDG goal, target, or indicator in the Sector element (from vocabs 7, 8, or 9)</t>
-        </is>
-      </c>
-      <c r="B155" s="71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" ht="13.8" customHeight="1" s="45">
-      <c r="A156" s="73" t="inlineStr">
-        <is>
-          <t>Number of activities that include at least one SDG indicator in the reference element within a result indicator element</t>
-        </is>
-      </c>
-      <c r="B156" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" s="59" t="n"/>
     </row>
     <row r="157" ht="13.8" customHeight="1" s="45">
       <c r="A157" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Number of activities using policy markers? </t>
+          <t>Number of activities that include any SDG information (any of the three options listed below)</t>
         </is>
       </c>
       <c r="B157" s="64" t="n">
         <v>0</v>
+      </c>
+      <c r="I157" s="57" t="inlineStr">
+        <is>
+          <t>To add</t>
+        </is>
       </c>
     </row>
     <row r="158" ht="13.8" customHeight="1" s="45">
       <c r="A158" s="73" t="inlineStr">
         <is>
+          <t>Number of activities that include at least one SDG goal or target in the Tag element</t>
+        </is>
+      </c>
+      <c r="B158" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="13.8" customHeight="1" s="45">
+      <c r="A159" s="73" t="inlineStr">
+        <is>
+          <t>Number of activities that include at least one SDG goal, target, or indicator in the Sector element (from vocabs 7, 8, or 9)</t>
+        </is>
+      </c>
+      <c r="B159" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="13.8" customHeight="1" s="45">
+      <c r="A160" s="73" t="inlineStr">
+        <is>
+          <t>Number of activities that include at least one SDG indicator in the reference element within a result indicator element</t>
+        </is>
+      </c>
+      <c r="B160" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="13.8" customHeight="1" s="45">
+      <c r="A161" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of activities using policy markers? </t>
+        </is>
+      </c>
+      <c r="B161" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="13.8" customHeight="1" s="45">
+      <c r="A162" s="73" t="inlineStr">
+        <is>
           <t>Which policy markers are being used? Please list them</t>
         </is>
       </c>
-      <c r="B158" s="64" t="inlineStr"/>
-    </row>
-    <row r="159" ht="13.8" customHeight="1" s="45">
-      <c r="A159" s="57" t="n"/>
-      <c r="B159" s="64" t="n"/>
-    </row>
-    <row r="160" ht="13.8" customHeight="1" s="45">
-      <c r="A160" s="52" t="inlineStr">
+      <c r="B162" s="64" t="inlineStr"/>
+    </row>
+    <row r="163" ht="13.8" customHeight="1" s="45">
+      <c r="A163" s="57" t="n"/>
+      <c r="B163" s="64" t="n"/>
+    </row>
+    <row r="164" ht="13.8" customHeight="1" s="45">
+      <c r="A164" s="52" t="inlineStr">
         <is>
           <t>Humanitarian</t>
         </is>
       </c>
-      <c r="B160" s="61" t="n"/>
-      <c r="I160" s="70" t="inlineStr">
+      <c r="B164" s="61" t="n"/>
+      <c r="I164" s="69" t="inlineStr">
         <is>
           <t>Humanitarian</t>
         </is>
       </c>
-      <c r="J160" s="59" t="n"/>
-    </row>
-    <row r="161" ht="13.8" customHeight="1" s="45">
-      <c r="A161" s="74" t="inlineStr">
-        <is>
-          <t>Humanitarian reported at activity or transaction level or both?</t>
-        </is>
-      </c>
-      <c r="B161" s="64" t="n"/>
-      <c r="I161" s="57" t="inlineStr">
-        <is>
-          <t>To add</t>
-        </is>
-      </c>
-    </row>
-    <row r="162" ht="13.8" customHeight="1" s="45">
-      <c r="A162" s="75" t="inlineStr">
-        <is>
-          <t>How many activities include the humanitarian flag at the activity level?</t>
-        </is>
-      </c>
-      <c r="B162" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" ht="13.8" customHeight="1" s="45">
-      <c r="A163" s="74" t="inlineStr">
-        <is>
-          <t>Percentage of activities that include the humanitarian flag at activity level</t>
-        </is>
-      </c>
-      <c r="B163" s="64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" ht="13.8" customHeight="1" s="45">
-      <c r="A164" s="74" t="inlineStr">
-        <is>
-          <t>How many transactions include the humanitarian flag?</t>
-        </is>
-      </c>
-      <c r="B164" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" s="59" t="n"/>
     </row>
     <row r="165" ht="13.8" customHeight="1" s="45">
       <c r="A165" s="74" t="inlineStr">
         <is>
-          <t>Number of activities with humanitarian scope</t>
-        </is>
-      </c>
-      <c r="B165" s="64" t="n">
-        <v>0</v>
+          <t>Humanitarian reported at activity or transaction level or both?</t>
+        </is>
+      </c>
+      <c r="B165" s="64" t="n"/>
+      <c r="I165" s="57" t="inlineStr">
+        <is>
+          <t>To add</t>
+        </is>
       </c>
     </row>
     <row r="166" ht="13.8" customHeight="1" s="45">
-      <c r="A166" s="74" t="inlineStr">
-        <is>
-          <t>Which humanitarian scope types are being used?</t>
-        </is>
-      </c>
-      <c r="B166" s="64" t="inlineStr"/>
+      <c r="A166" s="75" t="inlineStr">
+        <is>
+          <t>How many activities include the humanitarian flag at the activity level?</t>
+        </is>
+      </c>
+      <c r="B166" s="64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" ht="13.8" customHeight="1" s="45">
       <c r="A167" s="74" t="inlineStr">
         <is>
+          <t>Percentage of activities that include the humanitarian flag at activity level</t>
+        </is>
+      </c>
+      <c r="B167" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="13.8" customHeight="1" s="45">
+      <c r="A168" s="74" t="inlineStr">
+        <is>
+          <t>How many transactions include the humanitarian flag?</t>
+        </is>
+      </c>
+      <c r="B168" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" ht="13.8" customHeight="1" s="45">
+      <c r="A169" s="74" t="inlineStr">
+        <is>
+          <t>Number of activities with humanitarian scope</t>
+        </is>
+      </c>
+      <c r="B169" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" ht="13.8" customHeight="1" s="45">
+      <c r="A170" s="74" t="inlineStr">
+        <is>
+          <t>Which humanitarian scope types are being used?</t>
+        </is>
+      </c>
+      <c r="B170" s="64" t="inlineStr"/>
+    </row>
+    <row r="171" ht="13.8" customHeight="1" s="45">
+      <c r="A171" s="74" t="inlineStr">
+        <is>
           <t>Which humanitarian scope vocabularies are being used?</t>
         </is>
       </c>
-      <c r="B167" s="64" t="inlineStr"/>
-    </row>
-    <row r="168" ht="13.8" customHeight="1" s="45">
-      <c r="A168" s="74" t="n"/>
-      <c r="B168" s="64" t="n"/>
-    </row>
-    <row r="169" ht="13.8" customHeight="1" s="45">
-      <c r="A169" s="52" t="inlineStr">
+      <c r="B171" s="64" t="inlineStr"/>
+    </row>
+    <row r="172" ht="13.8" customHeight="1" s="45">
+      <c r="A172" s="74" t="n"/>
+      <c r="B172" s="64" t="n"/>
+    </row>
+    <row r="173" ht="13.8" customHeight="1" s="45">
+      <c r="A173" s="52" t="inlineStr">
         <is>
           <t>Finance &amp; Flow Type</t>
         </is>
       </c>
-      <c r="B169" s="61" t="n"/>
-      <c r="I169" s="70" t="inlineStr">
+      <c r="B173" s="61" t="n"/>
+      <c r="I173" s="69" t="inlineStr">
         <is>
           <t>Finance &amp; Flow Type</t>
         </is>
       </c>
-      <c r="J169" s="59" t="n"/>
-    </row>
-    <row r="170" ht="13.8" customHeight="1" s="45">
-      <c r="A170" s="73" t="inlineStr">
-        <is>
-          <t>Finance type reported at activity or transaction level? Or both (if this is inconsistent)?</t>
-        </is>
-      </c>
-      <c r="B170" s="71" t="n"/>
-      <c r="I170" s="57" t="inlineStr">
-        <is>
-          <t>To add</t>
-        </is>
-      </c>
-    </row>
-    <row r="171" ht="13.8" customHeight="1" s="45">
-      <c r="A171" s="73" t="inlineStr">
-        <is>
-          <t>Activity level: Number of activities including default finance type</t>
-        </is>
-      </c>
-      <c r="B171" s="71" t="n">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="172" ht="13.8" customHeight="1" s="45">
-      <c r="A172" s="73" t="inlineStr">
-        <is>
-          <t>Activity level: Percentage of activities including default finance type</t>
-        </is>
-      </c>
-      <c r="B172" s="72" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" ht="13.8" customHeight="1" s="45">
-      <c r="A173" s="73" t="inlineStr">
-        <is>
-          <t>Transaction level: Number of transactions including finance type</t>
-        </is>
-      </c>
-      <c r="B173" s="71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" s="59" t="n"/>
     </row>
     <row r="174" ht="13.8" customHeight="1" s="45">
       <c r="A174" s="73" t="inlineStr">
         <is>
-          <t>Transaction level: Percentage of transactions including finance type</t>
-        </is>
-      </c>
-      <c r="B174" s="71" t="n">
-        <v>0</v>
+          <t>Finance type reported at activity or transaction level? Or both (if this is inconsistent)?</t>
+        </is>
+      </c>
+      <c r="B174" s="71" t="n"/>
+      <c r="I174" s="57" t="inlineStr">
+        <is>
+          <t>To add</t>
+        </is>
       </c>
     </row>
     <row r="175" ht="13.8" customHeight="1" s="45">
       <c r="A175" s="73" t="inlineStr">
         <is>
-          <t>Transaction level: Finance type included in which transaction types?</t>
-        </is>
-      </c>
-      <c r="B175" s="71" t="inlineStr"/>
+          <t>Activity level: Number of activities including default finance type</t>
+        </is>
+      </c>
+      <c r="B175" s="71" t="n">
+        <v>2159</v>
+      </c>
     </row>
     <row r="176" ht="13.8" customHeight="1" s="45">
       <c r="A176" s="73" t="inlineStr">
         <is>
-          <t>Which finance type is being used? .//default-finance-type/@code</t>
-        </is>
-      </c>
-      <c r="B176" s="71" t="inlineStr">
-        <is>
-          <t>, 110</t>
-        </is>
+          <t>Activity level: Percentage of activities including default finance type</t>
+        </is>
+      </c>
+      <c r="B176" s="72" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="177" ht="13.8" customHeight="1" s="45">
       <c r="A177" s="73" t="inlineStr">
         <is>
-          <t>Flow type reported at activity or transaction level? Or both (if this is inconsistent)?</t>
-        </is>
-      </c>
-      <c r="B177" s="71" t="n"/>
+          <t>Transaction level: Number of transactions including finance type</t>
+        </is>
+      </c>
+      <c r="B177" s="71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" ht="13.8" customHeight="1" s="45">
       <c r="A178" s="73" t="inlineStr">
         <is>
-          <t>Activity level: Number of activities including default flow type</t>
+          <t>Transaction level: Percentage of transactions including finance type</t>
         </is>
       </c>
       <c r="B178" s="71" t="n">
-        <v>2159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" ht="13.8" customHeight="1" s="45">
       <c r="A179" s="73" t="inlineStr">
         <is>
-          <t>Activity level: Percentage of activities including default flow type</t>
-        </is>
-      </c>
-      <c r="B179" s="72" t="n">
-        <v>100</v>
-      </c>
+          <t>Transaction level: Finance type included in which transaction types?</t>
+        </is>
+      </c>
+      <c r="B179" s="71" t="inlineStr"/>
     </row>
     <row r="180" ht="13.8" customHeight="1" s="45">
       <c r="A180" s="73" t="inlineStr">
         <is>
-          <t>Transaction level: Number of transactions including flow type</t>
-        </is>
-      </c>
-      <c r="B180" s="71" t="n">
-        <v>0</v>
+          <t>Which finance type is being used? .//default-finance-type/@code</t>
+        </is>
+      </c>
+      <c r="B180" s="71" t="inlineStr">
+        <is>
+          <t>, 110</t>
+        </is>
       </c>
     </row>
     <row r="181" ht="13.8" customHeight="1" s="45">
       <c r="A181" s="73" t="inlineStr">
         <is>
-          <t>Transaction level: Percentage of transactions including flow type</t>
-        </is>
-      </c>
-      <c r="B181" s="71" t="n">
-        <v>0</v>
-      </c>
+          <t>Flow type reported at activity or transaction level? Or both (if this is inconsistent)?</t>
+        </is>
+      </c>
+      <c r="B181" s="71" t="n"/>
     </row>
     <row r="182" ht="13.8" customHeight="1" s="45">
       <c r="A182" s="73" t="inlineStr">
         <is>
-          <t>Transaction level: Flow type included in which transaction types?</t>
-        </is>
-      </c>
-      <c r="B182" s="71" t="inlineStr"/>
+          <t>Activity level: Number of activities including default flow type</t>
+        </is>
+      </c>
+      <c r="B182" s="71" t="n">
+        <v>2159</v>
+      </c>
     </row>
     <row r="183" ht="13.8" customHeight="1" s="45">
       <c r="A183" s="73" t="inlineStr">
         <is>
+          <t>Activity level: Percentage of activities including default flow type</t>
+        </is>
+      </c>
+      <c r="B183" s="72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" ht="13.8" customHeight="1" s="45">
+      <c r="A184" s="73" t="inlineStr">
+        <is>
+          <t>Transaction level: Number of transactions including flow type</t>
+        </is>
+      </c>
+      <c r="B184" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="13.8" customHeight="1" s="45">
+      <c r="A185" s="73" t="inlineStr">
+        <is>
+          <t>Transaction level: Percentage of transactions including flow type</t>
+        </is>
+      </c>
+      <c r="B185" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" ht="13.8" customHeight="1" s="45">
+      <c r="A186" s="73" t="inlineStr">
+        <is>
+          <t>Transaction level: Flow type included in which transaction types?</t>
+        </is>
+      </c>
+      <c r="B186" s="71" t="inlineStr"/>
+    </row>
+    <row r="187" ht="13.8" customHeight="1" s="45">
+      <c r="A187" s="73" t="inlineStr">
+        <is>
           <t>Which flow type has been used? .//default-flow-type/@code</t>
         </is>
       </c>
-      <c r="B183" s="71" t="inlineStr">
+      <c r="B187" s="71" t="inlineStr">
         <is>
           <t>, 30, 10</t>
         </is>
       </c>
     </row>
-    <row r="184" ht="13.8" customHeight="1" s="45">
-      <c r="A184" s="57" t="n"/>
-      <c r="B184" s="64" t="n"/>
-    </row>
-    <row r="185" ht="13.8" customHeight="1" s="45">
-      <c r="A185" s="52" t="inlineStr">
+    <row r="188" ht="13.8" customHeight="1" s="45">
+      <c r="A188" s="57" t="n"/>
+      <c r="B188" s="64" t="n"/>
+    </row>
+    <row r="189" ht="13.8" customHeight="1" s="45">
+      <c r="A189" s="52" t="inlineStr">
         <is>
           <t>Aid Type</t>
         </is>
       </c>
-      <c r="B185" s="61" t="n"/>
-      <c r="I185" s="70" t="inlineStr">
+      <c r="B189" s="61" t="n"/>
+      <c r="I189" s="69" t="inlineStr">
         <is>
           <t>Aid Type</t>
         </is>
       </c>
-      <c r="J185" s="59" t="n"/>
-    </row>
-    <row r="186" ht="13.8" customHeight="1" s="45">
-      <c r="A186" s="63" t="inlineStr">
+      <c r="J189" s="59" t="n"/>
+    </row>
+    <row r="190" ht="13.8" customHeight="1" s="45">
+      <c r="A190" s="70" t="inlineStr">
         <is>
           <t>Aid type reported at activity or transaction level? Or both (if this is inconsistent)?</t>
         </is>
       </c>
-      <c r="B186" s="71" t="n"/>
-      <c r="I186" s="57" t="inlineStr">
+      <c r="B190" s="71" t="n"/>
+      <c r="I190" s="57" t="inlineStr">
         <is>
           <t>To add</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="13.8" customHeight="1" s="45">
-      <c r="A187" s="63" t="inlineStr">
+    <row r="191" ht="13.8" customHeight="1" s="45">
+      <c r="A191" s="70" t="inlineStr">
         <is>
           <t>Activity level: Number of activities including default aid type</t>
         </is>
       </c>
-      <c r="B187" s="71" t="n">
+      <c r="B191" s="71" t="n">
         <v>2159</v>
       </c>
     </row>
-    <row r="188" ht="13.8" customHeight="1" s="45">
-      <c r="A188" s="63" t="inlineStr">
+    <row r="192" ht="13.8" customHeight="1" s="45">
+      <c r="A192" s="70" t="inlineStr">
         <is>
           <t>Activity level: Percentage of activities including default aid type</t>
         </is>
       </c>
-      <c r="B188" s="72" t="n">
+      <c r="B192" s="72" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="189" ht="13.8" customHeight="1" s="45">
-      <c r="A189" s="63" t="inlineStr">
+    <row r="193" ht="13.8" customHeight="1" s="45">
+      <c r="A193" s="70" t="inlineStr">
         <is>
           <t>Transaction level: Number of transactions including aid type</t>
         </is>
       </c>
-      <c r="B189" s="71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" ht="13.8" customHeight="1" s="45">
-      <c r="A190" s="63" t="inlineStr">
+      <c r="B193" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" ht="13.8" customHeight="1" s="45">
+      <c r="A194" s="70" t="inlineStr">
         <is>
           <t>Transaction level: Percentage of transactions including aid type</t>
         </is>
       </c>
-      <c r="B190" s="71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" ht="13.8" customHeight="1" s="45">
-      <c r="A191" s="63" t="inlineStr">
+      <c r="B194" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" ht="13.8" customHeight="1" s="45">
+      <c r="A195" s="70" t="inlineStr">
         <is>
           <t>Transaction level: Aid type included in which transaction types?</t>
         </is>
       </c>
-      <c r="B191" s="71" t="inlineStr"/>
-    </row>
-    <row r="192" ht="14.15" customHeight="1" s="45">
-      <c r="A192" s="67" t="inlineStr">
+      <c r="B195" s="71" t="inlineStr"/>
+    </row>
+    <row r="196" ht="14.15" customHeight="1" s="45">
+      <c r="A196" s="66" t="inlineStr">
         <is>
           <t>Which default aid type vocabularies are being used?</t>
         </is>
       </c>
-      <c r="B192" s="71" t="inlineStr"/>
-    </row>
-    <row r="193" ht="14.15" customHeight="1" s="45">
-      <c r="A193" s="67" t="inlineStr">
+      <c r="B196" s="71" t="inlineStr"/>
+    </row>
+    <row r="197" ht="14.15" customHeight="1" s="45">
+      <c r="A197" s="66" t="inlineStr">
         <is>
           <t>Which aid type vocabularies are being used?</t>
         </is>
       </c>
-      <c r="B193" s="64" t="inlineStr"/>
-    </row>
-    <row r="194" ht="13.8" customHeight="1" s="45">
-      <c r="I194" s="70" t="inlineStr">
+      <c r="B197" s="64" t="inlineStr"/>
+    </row>
+    <row r="198" ht="13.8" customHeight="1" s="45">
+      <c r="I198" s="69" t="inlineStr">
         <is>
           <t>Organization File (manual)</t>
         </is>
       </c>
-      <c r="J194" s="54" t="n"/>
-    </row>
-    <row r="195" ht="13.8" customHeight="1" s="45">
-      <c r="A195" s="73" t="n"/>
-      <c r="B195" s="64" t="n"/>
-      <c r="I195" s="63" t="inlineStr">
+      <c r="J198" s="54" t="n"/>
+    </row>
+    <row r="199" ht="13.8" customHeight="1" s="45">
+      <c r="A199" s="73" t="n"/>
+      <c r="B199" s="64" t="n"/>
+      <c r="I199" s="70" t="inlineStr">
         <is>
           <t>Date last updated</t>
         </is>
       </c>
     </row>
-    <row r="196" ht="13.8" customHeight="1" s="45">
-      <c r="A196" s="73" t="n"/>
-      <c r="B196" s="71" t="n"/>
-      <c r="I196" s="63" t="inlineStr">
+    <row r="200" ht="13.8" customHeight="1" s="45">
+      <c r="A200" s="73" t="n"/>
+      <c r="B200" s="71" t="n"/>
+      <c r="I200" s="70" t="inlineStr">
         <is>
           <t>Total budget (assessed for 2020-2023)</t>
         </is>
       </c>
     </row>
-    <row r="197" ht="13.8" customHeight="1" s="45">
-      <c r="A197" s="76" t="n"/>
-      <c r="B197" s="71" t="n"/>
-      <c r="I197" s="63" t="inlineStr">
+    <row r="201" ht="13.8" customHeight="1" s="45">
+      <c r="A201" s="76" t="n"/>
+      <c r="B201" s="71" t="n"/>
+      <c r="I201" s="70" t="inlineStr">
         <is>
           <t>Total expenditure (assessed for 2018-2020) has it been included? which years?</t>
         </is>

--- a/output/france/publisher.xlsx
+++ b/output/france/publisher.xlsx
@@ -821,10 +821,10 @@
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
+      <selection pane="topLeft" activeCell="A198" activeCellId="0" sqref="A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="67.75" customWidth="1" style="44" min="1" max="1"/>
     <col width="41.13" customWidth="1" style="44" min="2" max="2"/>
@@ -842,7 +842,7 @@
     <row r="2" ht="15" customHeight="1" s="45">
       <c r="A2" s="47" t="inlineStr">
         <is>
-          <t>AUTOMATIC DATA PULL - 2021-03-29</t>
+          <t>AUTOMATIC DATA PULL - 2021-05-03</t>
         </is>
       </c>
       <c r="C2" s="48" t="n">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B5" s="56" t="n">
-        <v>2159</v>
+        <v>2260</v>
       </c>
       <c r="I5" s="57" t="inlineStr">
         <is>
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="B6" s="56" t="n">
-        <v>2147</v>
+        <v>2246</v>
       </c>
       <c r="C6" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D6" t="n">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F6" t="n">
-        <v>1353</v>
+        <v>1442</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         </is>
       </c>
       <c r="B7" s="56" t="n">
-        <v>4195</v>
+        <v>4400</v>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D7" t="n">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="F7" t="n">
-        <v>1353</v>
+        <v>1472</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B8" s="58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="45">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="54" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 4, 6, 1, 5, 3</t>
+          <t>2, 5, 1, 3, 4, 6</t>
         </is>
       </c>
       <c r="I12" s="57" t="n"/>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B15" s="60" t="n">
-        <v>3050</v>
+        <v>3252</v>
       </c>
       <c r="I15" s="57" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B16" s="60" t="n">
-        <v>4950</v>
+        <v>5152</v>
       </c>
       <c r="I16" s="57" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B17" s="60" t="n">
-        <v>4463</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="45">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B18" s="60" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="45">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B20" s="60" t="n">
-        <v>1525</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="45">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B21" s="60" t="n">
-        <v>70.63</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="45">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B26" s="60" t="n">
-        <v>1525</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="45">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B27" s="60" t="n">
-        <v>70.63</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="45">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B29" s="60" t="n">
-        <v>1525</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="45">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B30" s="60" t="n">
-        <v>70.63</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="45">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="B56" s="60" t="n">
-        <v>1610</v>
+        <v>1716</v>
       </c>
       <c r="I56" s="57" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="B57" s="60" t="n">
-        <v>1514</v>
+        <v>1612</v>
       </c>
       <c r="I57" s="57" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B58" s="60" t="n">
-        <v>70.13</v>
+        <v>71.33</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="45">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B60" s="60" t="n">
-        <v>1655</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="45">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B61" s="64" t="n">
-        <v>1486</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="45">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B62" s="60" t="n">
-        <v>68.83</v>
+        <v>69.51000000000001</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="45">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B124" s="64" t="n">
-        <v>2156</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="125" ht="13.8" customHeight="1" s="45">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B125" s="64" t="n">
-        <v>2047</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="126" ht="13.8" customHeight="1" s="45">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B128" s="64" t="n">
-        <v>4193</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="129" ht="13.8" customHeight="1" s="45">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="B134" s="64" t="n">
-        <v>1295</v>
+        <v>1333</v>
       </c>
       <c r="I134" s="57" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="B135" s="64" t="n">
-        <v>59.98</v>
+        <v>58.98</v>
       </c>
     </row>
     <row r="136" ht="13.8" customHeight="1" s="45">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="B136" s="64" t="n">
-        <v>1295</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="137" ht="13.8" customHeight="1" s="45">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B138" s="64" t="n">
-        <v>1295</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="139" ht="13.8" customHeight="1" s="45">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B141" s="64" t="n">
-        <v>2159</v>
+        <v>2260</v>
       </c>
       <c r="I141" s="57" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B143" s="71" t="n">
-        <v>2159</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="144" ht="13.8" customHeight="1" s="45">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="B175" s="71" t="n">
-        <v>2159</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="176" ht="13.8" customHeight="1" s="45">
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="B182" s="71" t="n">
-        <v>2159</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="183" ht="13.8" customHeight="1" s="45">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B191" s="71" t="n">
-        <v>2159</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="192" ht="13.8" customHeight="1" s="45">
@@ -2972,15 +2972,19 @@
     <row r="196" ht="14.15" customHeight="1" s="45">
       <c r="A196" s="66" t="inlineStr">
         <is>
-          <t>Which default aid type vocabularies are being used?</t>
-        </is>
-      </c>
-      <c r="B196" s="71" t="inlineStr"/>
+          <t>Which default aid type codes are being used?</t>
+        </is>
+      </c>
+      <c r="B196" s="71" t="inlineStr">
+        <is>
+          <t>, B03, E01, D01, B01, A02, D02, C01, A01, B02</t>
+        </is>
+      </c>
     </row>
     <row r="197" ht="14.15" customHeight="1" s="45">
       <c r="A197" s="66" t="inlineStr">
         <is>
-          <t>Which aid type vocabularies are being used?</t>
+          <t>Which aid type codes are being used?</t>
         </is>
       </c>
       <c r="B197" s="64" t="inlineStr"/>

--- a/output/france/publisher.xlsx
+++ b/output/france/publisher.xlsx
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B5" s="56" t="n">
-        <v>2260</v>
+        <v>2175</v>
       </c>
       <c r="I5" s="57" t="inlineStr">
         <is>
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="B6" s="56" t="n">
-        <v>2246</v>
+        <v>2162</v>
       </c>
       <c r="C6" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D6" t="n">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E6" t="n">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>1442</v>
+        <v>1368</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         </is>
       </c>
       <c r="B7" s="56" t="n">
-        <v>4400</v>
+        <v>4235</v>
       </c>
       <c r="C7" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D7" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E7" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>1472</v>
+        <v>1370</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 5, 1, 3, 4, 6</t>
+          <t>3, 5, 2, 4, 6, 1</t>
         </is>
       </c>
       <c r="I12" s="57" t="n"/>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B15" s="60" t="n">
-        <v>3252</v>
+        <v>3082</v>
       </c>
       <c r="I15" s="57" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B16" s="60" t="n">
-        <v>5152</v>
+        <v>4982</v>
       </c>
       <c r="I16" s="57" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B17" s="60" t="n">
-        <v>4763</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="45">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B18" s="60" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="45">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B20" s="60" t="n">
-        <v>1626</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="45">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B21" s="60" t="n">
-        <v>71.95</v>
+        <v>70.84999999999999</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="45">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B26" s="60" t="n">
-        <v>1626</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="45">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B27" s="60" t="n">
-        <v>71.95</v>
+        <v>70.84999999999999</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="45">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B29" s="60" t="n">
-        <v>1626</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="45">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B30" s="60" t="n">
-        <v>71.95</v>
+        <v>70.84999999999999</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="45">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="B56" s="60" t="n">
-        <v>1716</v>
+        <v>1628</v>
       </c>
       <c r="I56" s="57" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="B57" s="60" t="n">
-        <v>1612</v>
+        <v>1529</v>
       </c>
       <c r="I57" s="57" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B58" s="60" t="n">
-        <v>71.33</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="45">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B60" s="60" t="n">
-        <v>1754</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="45">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B61" s="64" t="n">
-        <v>1571</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="45">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B62" s="60" t="n">
-        <v>69.51000000000001</v>
+        <v>68.92</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="45">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B124" s="64" t="n">
-        <v>2257</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="125" ht="13.8" customHeight="1" s="45">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B125" s="64" t="n">
-        <v>2148</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="126" ht="13.8" customHeight="1" s="45">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B128" s="64" t="n">
-        <v>4398</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="129" ht="13.8" customHeight="1" s="45">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="B134" s="64" t="n">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="I134" s="57" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="B135" s="64" t="n">
-        <v>58.98</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="136" ht="13.8" customHeight="1" s="45">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="B136" s="64" t="n">
-        <v>1333</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="137" ht="13.8" customHeight="1" s="45">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B138" s="64" t="n">
-        <v>1333</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="139" ht="13.8" customHeight="1" s="45">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B141" s="64" t="n">
-        <v>2260</v>
+        <v>2175</v>
       </c>
       <c r="I141" s="57" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B143" s="71" t="n">
-        <v>2260</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="144" ht="13.8" customHeight="1" s="45">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="B175" s="71" t="n">
-        <v>2260</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="176" ht="13.8" customHeight="1" s="45">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B180" s="71" t="inlineStr">
         <is>
-          <t>, 110</t>
+          <t xml:space="preserve">110, </t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="B182" s="71" t="n">
-        <v>2260</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="183" ht="13.8" customHeight="1" s="45">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B187" s="71" t="inlineStr">
         <is>
-          <t>, 30, 10</t>
+          <t>10, , 30</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B191" s="71" t="n">
-        <v>2260</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="192" ht="13.8" customHeight="1" s="45">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B196" s="71" t="inlineStr">
         <is>
-          <t>, B03, E01, D01, B01, A02, D02, C01, A01, B02</t>
+          <t>D01, , A01, A02, D02, E01, C01, B03, B02, B01</t>
         </is>
       </c>
     </row>
